--- a/artfynd/A 59351-2018.xlsx
+++ b/artfynd/A 59351-2018.xlsx
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331382.3104553008</v>
+        <v>331382</v>
       </c>
       <c r="R3" t="n">
-        <v>6626990.530123255</v>
+        <v>6626991</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,19 +873,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
